--- a/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E2EB4F-02C7-4087-96A1-2D5C9591DC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF9D3FB-4584-431A-9ED5-6E384F1C078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC289417-6880-4DFC-8242-A063E36BD886}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63C9E3FC-567F-4BEE-A96A-F2E8612F215F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="490">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -173,1348 +173,1342 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBE0784-CACB-4754-8C3B-1F1B5E0C3D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B606AF4-2F60-4610-977A-10F57D4CE664}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3052,7 +3046,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -3256,7 +3250,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -3289,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53433983-DAF9-45BB-8509-2EF0DD2FF709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DA1366-0999-406B-8B94-FD9355091D7B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,13 +3575,13 @@
         <v>35474</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3596,13 +3590,13 @@
         <v>69061</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3611,13 @@
         <v>53219</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -3632,13 +3626,13 @@
         <v>51345</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3647,13 +3641,13 @@
         <v>104565</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3772,13 +3766,13 @@
         <v>1068004</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>1109</v>
@@ -3787,13 +3781,13 @@
         <v>1194293</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>2116</v>
@@ -3802,13 +3796,13 @@
         <v>2262297</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3817,13 @@
         <v>511147</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H12" s="7">
         <v>297</v>
@@ -3838,13 +3832,13 @@
         <v>318163</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M12" s="7">
         <v>791</v>
@@ -3853,13 +3847,13 @@
         <v>829310</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3868,13 @@
         <v>173103</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3889,13 +3883,13 @@
         <v>121005</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -3904,13 +3898,13 @@
         <v>294108</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3919,13 @@
         <v>211703</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -3940,13 +3934,13 @@
         <v>124342</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -3955,13 +3949,13 @@
         <v>336045</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4029,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4050,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4065,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4074,13 @@
         <v>166862</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -4095,13 +4089,13 @@
         <v>230128</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -4110,13 +4104,13 @@
         <v>396990</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4125,13 @@
         <v>204101</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>121</v>
@@ -4146,13 +4140,13 @@
         <v>134964</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>306</v>
@@ -4161,13 +4155,13 @@
         <v>339065</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4176,13 @@
         <v>61550</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -4197,13 +4191,13 @@
         <v>50120</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4212,13 +4206,13 @@
         <v>111670</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4227,13 @@
         <v>48668</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4248,13 +4242,13 @@
         <v>43419</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -4263,13 +4257,13 @@
         <v>92087</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4382,13 @@
         <v>2030850</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>2438</v>
@@ -4403,13 +4397,13 @@
         <v>2626414</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>4336</v>
@@ -4418,13 +4412,13 @@
         <v>4657265</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4433,13 @@
         <v>807102</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>464</v>
@@ -4454,13 +4448,13 @@
         <v>502111</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>1229</v>
@@ -4469,13 +4463,13 @@
         <v>1309213</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4484,13 @@
         <v>268240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4505,13 +4499,13 @@
         <v>206599</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -4520,13 +4514,13 @@
         <v>474839</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4535,13 @@
         <v>313590</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -4556,13 +4550,13 @@
         <v>219105</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>490</v>
@@ -4571,13 +4565,13 @@
         <v>532696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E26CDA-ED1B-4645-B62F-9B22C9CEA19C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3389F-D3AA-44FB-8E95-B502C321B8D5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4669,7 +4663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4782,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4797,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4827,13 +4821,13 @@
         <v>611229</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>820</v>
@@ -4842,13 +4836,13 @@
         <v>922573</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>1448</v>
@@ -4857,13 +4851,13 @@
         <v>1533802</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,10 +4872,10 @@
         <v>69462</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>202</v>
@@ -4950,7 +4944,7 @@
         <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -4959,13 +4953,13 @@
         <v>56333</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4974,13 @@
         <v>33878</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4995,13 +4989,13 @@
         <v>22437</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -5010,13 +5004,13 @@
         <v>56316</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5105,7 +5099,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5120,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5129,13 @@
         <v>1151188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>1270</v>
@@ -5150,13 +5144,13 @@
         <v>1335525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -5165,13 +5159,13 @@
         <v>2486713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5180,13 @@
         <v>511060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>362</v>
@@ -5201,13 +5195,13 @@
         <v>372016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
@@ -5216,13 +5210,13 @@
         <v>883077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5231,13 @@
         <v>208172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -5252,13 +5246,13 @@
         <v>139056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -5267,13 +5261,13 @@
         <v>347228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5282,13 @@
         <v>205965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5303,13 +5297,13 @@
         <v>141703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5318,13 +5312,13 @@
         <v>347668</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5428,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5437,13 @@
         <v>196278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5458,13 +5452,13 @@
         <v>240687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -5473,13 +5467,13 @@
         <v>436965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5488,13 @@
         <v>197928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7">
         <v>161</v>
@@ -5509,13 +5503,13 @@
         <v>164495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>343</v>
@@ -5524,13 +5518,13 @@
         <v>362423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5539,13 @@
         <v>72741</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -5560,13 +5554,13 @@
         <v>69540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -5575,13 +5569,13 @@
         <v>142281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5590,13 @@
         <v>79939</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -5611,13 +5605,13 @@
         <v>74418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -5626,13 +5620,13 @@
         <v>154356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5745,13 @@
         <v>1958694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>2317</v>
@@ -5766,13 +5760,13 @@
         <v>2498785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M23" s="7">
         <v>4212</v>
@@ -5781,13 +5775,13 @@
         <v>4457480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5796,13 @@
         <v>778451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="H24" s="7">
         <v>556</v>
@@ -5817,13 +5811,13 @@
         <v>569606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M24" s="7">
         <v>1284</v>
@@ -5832,13 +5826,13 @@
         <v>1348056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5847,13 @@
         <v>320691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5868,13 +5862,13 @@
         <v>225151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -5883,13 +5877,13 @@
         <v>545842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5898,13 @@
         <v>319782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -5919,13 +5913,13 @@
         <v>238558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>534</v>
@@ -5934,13 +5928,13 @@
         <v>558340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,7 +6009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF933A4-6C69-40C1-A5E5-5460620422BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E24599D-ED7E-42F3-9726-40BA0B6F69E8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6032,7 +6026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6139,13 +6133,13 @@
         <v>424226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>1098</v>
@@ -6154,13 +6148,13 @@
         <v>636302</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>1643</v>
@@ -6169,13 +6163,13 @@
         <v>1060528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6184,13 @@
         <v>84020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>296</v>
@@ -6205,13 +6199,13 @@
         <v>179340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>409</v>
@@ -6220,13 +6214,13 @@
         <v>263360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6235,13 @@
         <v>10338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6256,13 +6250,13 @@
         <v>11469</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -6271,13 +6265,13 @@
         <v>21807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6286,13 @@
         <v>10288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6307,13 +6301,13 @@
         <v>2420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -6322,13 +6316,13 @@
         <v>12708</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6337,13 @@
         <v>12762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6358,13 +6352,13 @@
         <v>6422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -6373,13 +6367,13 @@
         <v>19183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,28 +6441,28 @@
         <v>1599660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>2160</v>
       </c>
       <c r="I10" s="7">
-        <v>1686141</v>
+        <v>1686142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>3683</v>
@@ -6477,13 +6471,13 @@
         <v>3285803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6492,13 @@
         <v>232725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -6513,13 +6507,13 @@
         <v>314714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>658</v>
@@ -6528,13 +6522,13 @@
         <v>547439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6543,13 @@
         <v>113811</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H12" s="7">
         <v>150</v>
@@ -6564,13 +6558,13 @@
         <v>119446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -6579,13 +6573,13 @@
         <v>233257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6594,13 @@
         <v>80766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>400</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -6615,13 +6609,13 @@
         <v>65222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -6630,13 +6624,13 @@
         <v>145988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6645,13 @@
         <v>135060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -6666,13 +6660,13 @@
         <v>63997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -6681,13 +6675,13 @@
         <v>199057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6708,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6755,13 +6749,13 @@
         <v>485324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>772</v>
@@ -6770,13 +6764,13 @@
         <v>535754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>1275</v>
@@ -6785,13 +6779,13 @@
         <v>1021079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6800,13 @@
         <v>55296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -6821,13 +6815,13 @@
         <v>64790</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>432</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -6836,13 +6830,13 @@
         <v>120086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6851,13 @@
         <v>53147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -6872,13 +6866,13 @@
         <v>43898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
@@ -6887,13 +6881,13 @@
         <v>97044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>187</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6902,13 @@
         <v>32946</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -6923,13 +6917,13 @@
         <v>22890</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -6938,13 +6932,13 @@
         <v>55837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6953,13 @@
         <v>46327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -6974,13 +6968,13 @@
         <v>46554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -6989,13 +6983,13 @@
         <v>92880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7057,13 @@
         <v>2509210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>4030</v>
@@ -7078,28 +7072,28 @@
         <v>2858199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>6601</v>
       </c>
       <c r="N22" s="7">
-        <v>5367409</v>
+        <v>5367408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,13 +7108,13 @@
         <v>372041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>816</v>
@@ -7129,13 +7123,13 @@
         <v>558844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M23" s="7">
         <v>1216</v>
@@ -7144,13 +7138,13 @@
         <v>930885</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7159,13 @@
         <v>177295</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -7180,13 +7174,13 @@
         <v>174813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="M24" s="7">
         <v>381</v>
@@ -7195,13 +7189,13 @@
         <v>352108</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>207</v>
+        <v>472</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7210,13 @@
         <v>124000</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -7231,13 +7225,13 @@
         <v>90533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>62</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -7246,13 +7240,13 @@
         <v>214532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7261,13 @@
         <v>194148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -7282,13 +7276,13 @@
         <v>116972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -7297,13 +7291,13 @@
         <v>311121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7309,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7345,7 +7339,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF9D3FB-4584-431A-9ED5-6E384F1C078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{076FB852-213C-45B1-97ED-9B059E127352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63C9E3FC-567F-4BEE-A96A-F2E8612F215F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8012682E-2134-4CE5-B7C9-74CB9B0E7801}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="488">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -173,16 +173,16 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>88,1%</t>
+    <t>88,13%</t>
   </si>
   <si>
     <t>91,46%</t>
@@ -191,1314 +191,1311 @@
     <t>86,4%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
     <t>2,65%</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
     <t>3,69%</t>
   </si>
   <si>
@@ -1506,9 +1503,6 @@
   </si>
   <si>
     <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B606AF4-2F60-4610-977A-10F57D4CE664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A494DFF0-F312-41FA-856E-919665E791FC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2400,7 +2394,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2604,7 +2598,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3016,7 +3010,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -3220,7 +3214,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -3283,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DA1366-0999-406B-8B94-FD9355091D7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12335B4D-4E8A-45F5-83E1-A64CDCC169CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,13 +3569,13 @@
         <v>35474</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -3590,13 +3584,13 @@
         <v>69061</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,7 +3611,7 @@
         <v>70</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -3626,13 +3620,13 @@
         <v>51345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3641,13 +3635,13 @@
         <v>104565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3766,13 +3760,13 @@
         <v>1068004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
         <v>1109</v>
@@ -3781,13 +3775,13 @@
         <v>1194293</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>2116</v>
@@ -3796,13 +3790,13 @@
         <v>2262297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3811,13 @@
         <v>511147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="7">
         <v>297</v>
@@ -3832,13 +3826,13 @@
         <v>318163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" s="7">
         <v>791</v>
@@ -3847,13 +3841,13 @@
         <v>829310</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3862,13 @@
         <v>173103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3883,13 +3877,13 @@
         <v>121005</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -3898,10 +3892,10 @@
         <v>294108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>104</v>
@@ -4538,10 +4532,10 @@
         <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -4550,13 +4544,13 @@
         <v>219105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>490</v>
@@ -4565,10 +4559,10 @@
         <v>532696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>187</v>
@@ -4646,7 +4640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD3389F-D3AA-44FB-8E95-B502C321B8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A997676-2D54-4990-8C64-86C119D2D089}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4944,7 +4938,7 @@
         <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -4953,13 +4947,13 @@
         <v>56333</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4998,13 @@
         <v>56316</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5099,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5114,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5123,13 @@
         <v>1151188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>1270</v>
@@ -5144,13 +5138,13 @@
         <v>1335525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -5159,13 +5153,13 @@
         <v>2486713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5174,13 @@
         <v>511060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>362</v>
@@ -5195,13 +5189,13 @@
         <v>372016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
@@ -5210,13 +5204,13 @@
         <v>883077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5225,13 @@
         <v>208172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -5246,13 +5240,13 @@
         <v>139056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -5261,13 +5255,13 @@
         <v>347228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5276,13 @@
         <v>205965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5297,13 +5291,13 @@
         <v>141703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5312,13 +5306,13 @@
         <v>347668</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5422,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5431,13 @@
         <v>196278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5452,13 +5446,13 @@
         <v>240687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -5467,13 +5461,13 @@
         <v>436965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5482,13 @@
         <v>197928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>161</v>
@@ -5503,13 +5497,13 @@
         <v>164495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>343</v>
@@ -5518,13 +5512,13 @@
         <v>362423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5533,13 @@
         <v>72741</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -5554,13 +5548,13 @@
         <v>69540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -5569,13 +5563,13 @@
         <v>142281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5584,13 @@
         <v>79939</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -5605,13 +5599,13 @@
         <v>74418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -5620,13 +5614,13 @@
         <v>154356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5739,13 @@
         <v>1958694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
         <v>2317</v>
@@ -5760,13 +5754,13 @@
         <v>2498785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>4212</v>
@@ -5775,13 +5769,13 @@
         <v>4457480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5790,13 @@
         <v>778451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="H24" s="7">
         <v>556</v>
@@ -5811,13 +5805,13 @@
         <v>569606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>1284</v>
@@ -5826,13 +5820,13 @@
         <v>1348056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5841,13 @@
         <v>320691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5862,13 +5856,13 @@
         <v>225151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -5877,13 +5871,13 @@
         <v>545842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,10 +5895,10 @@
         <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -5913,13 +5907,13 @@
         <v>238558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>534</v>
@@ -5928,13 +5922,13 @@
         <v>558340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E24599D-ED7E-42F3-9726-40BA0B6F69E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB282A4-DF35-4DBF-AC9D-018C31F26A95}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6026,7 +6020,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6133,13 +6127,13 @@
         <v>424226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>1098</v>
@@ -6148,13 +6142,13 @@
         <v>636302</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>1643</v>
@@ -6163,13 +6157,13 @@
         <v>1060528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6178,13 @@
         <v>84020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>296</v>
@@ -6199,13 +6193,13 @@
         <v>179340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>409</v>
@@ -6214,13 +6208,13 @@
         <v>263360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6229,13 @@
         <v>10338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6250,13 +6244,13 @@
         <v>11469</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -6265,13 +6259,13 @@
         <v>21807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6280,13 @@
         <v>10288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6301,13 +6295,13 @@
         <v>2420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -6316,13 +6310,13 @@
         <v>12708</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6331,13 @@
         <v>12762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6352,13 +6346,13 @@
         <v>6422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -6367,13 +6361,13 @@
         <v>19183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6435,13 @@
         <v>1599660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>2160</v>
@@ -6456,13 +6450,13 @@
         <v>1686142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>3683</v>
@@ -6471,13 +6465,13 @@
         <v>3285803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6486,13 @@
         <v>232725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -6507,13 +6501,13 @@
         <v>314714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M11" s="7">
         <v>658</v>
@@ -6522,13 +6516,13 @@
         <v>547439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6537,13 @@
         <v>113811</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H12" s="7">
         <v>150</v>
@@ -6558,13 +6552,13 @@
         <v>119446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -6573,13 +6567,13 @@
         <v>233257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6588,13 @@
         <v>80766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -6609,13 +6603,13 @@
         <v>65222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -6624,13 +6618,13 @@
         <v>145988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +6639,13 @@
         <v>135060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -6660,13 +6654,13 @@
         <v>63997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -6675,7 +6669,7 @@
         <v>199057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>412</v>
@@ -6800,13 +6794,13 @@
         <v>55296</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -6815,10 +6809,10 @@
         <v>64790</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>426</v>
@@ -6833,7 +6827,7 @@
         <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>428</v>
@@ -6851,7 +6845,7 @@
         <v>53147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>429</v>
@@ -6866,7 +6860,7 @@
         <v>43898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>431</v>
@@ -6908,7 +6902,7 @@
         <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -6917,13 +6911,13 @@
         <v>22890</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -6932,13 +6926,13 @@
         <v>55837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,10 +6947,10 @@
         <v>46327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>443</v>
+        <v>175</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>444</v>
@@ -6974,7 +6968,7 @@
         <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -7126,7 +7120,7 @@
         <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>463</v>
@@ -7141,10 +7135,10 @@
         <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7153,13 @@
         <v>177295</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -7174,13 +7168,13 @@
         <v>174813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M24" s="7">
         <v>381</v>
@@ -7189,13 +7183,13 @@
         <v>352108</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,10 +7204,10 @@
         <v>124000</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>217</v>
@@ -7225,13 +7219,13 @@
         <v>90533</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -7240,13 +7234,13 @@
         <v>214532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7255,13 @@
         <v>194148</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -7276,13 +7270,13 @@
         <v>116972</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -7291,13 +7285,13 @@
         <v>311121</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>489</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{076FB852-213C-45B1-97ED-9B059E127352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8D9BEC-45E5-4EA8-8B8B-38EC70ECAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8012682E-2134-4CE5-B7C9-74CB9B0E7801}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D672A07-FCE3-4450-8154-BE1E09B47286}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="492">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -173,1336 +173,1348 @@
     <t>81,67%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,49%</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A494DFF0-F312-41FA-856E-919665E791FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3547C9-E4CC-412D-B974-F984B9440D07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2394,7 +2406,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2598,7 +2610,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3010,7 +3022,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -3040,7 +3052,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -3214,7 +3226,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -3244,7 +3256,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -3277,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12335B4D-4E8A-45F5-83E1-A64CDCC169CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AAC8FD-286D-40D5-8444-3EF1D8060C83}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3590,7 +3602,7 @@
         <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3617,13 @@
         <v>53219</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -3620,13 +3632,13 @@
         <v>51345</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -3635,13 +3647,13 @@
         <v>104565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3760,13 +3772,13 @@
         <v>1068004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>1109</v>
@@ -3775,13 +3787,13 @@
         <v>1194293</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>2116</v>
@@ -3790,13 +3802,13 @@
         <v>2262297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3823,13 @@
         <v>511147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="7">
         <v>297</v>
@@ -3826,13 +3838,13 @@
         <v>318163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="7">
         <v>791</v>
@@ -3841,13 +3853,13 @@
         <v>829310</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>173103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -3877,13 +3889,13 @@
         <v>121005</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>275</v>
@@ -3892,13 +3904,13 @@
         <v>294108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3925,13 @@
         <v>211703</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -3928,13 +3940,13 @@
         <v>124342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -3943,13 +3955,13 @@
         <v>336045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4038,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4053,7 +4065,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4080,13 @@
         <v>166862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -4083,13 +4095,13 @@
         <v>230128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -4098,13 +4110,13 @@
         <v>396990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4131,13 @@
         <v>204101</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>121</v>
@@ -4134,13 +4146,13 @@
         <v>134964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>306</v>
@@ -4149,13 +4161,13 @@
         <v>339065</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4182,13 @@
         <v>61550</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -4185,13 +4197,13 @@
         <v>50120</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M19" s="7">
         <v>100</v>
@@ -4200,13 +4212,13 @@
         <v>111670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4233,13 @@
         <v>48668</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -4236,13 +4248,13 @@
         <v>43419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -4251,13 +4263,13 @@
         <v>92087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4388,13 @@
         <v>2030850</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>2438</v>
@@ -4391,13 +4403,13 @@
         <v>2626414</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>4336</v>
@@ -4406,13 +4418,13 @@
         <v>4657265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4439,13 @@
         <v>807102</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>464</v>
@@ -4442,13 +4454,13 @@
         <v>502111</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>1229</v>
@@ -4457,13 +4469,13 @@
         <v>1309213</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4490,13 @@
         <v>268240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>190</v>
@@ -4493,13 +4505,13 @@
         <v>206599</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -4508,13 +4520,13 @@
         <v>474839</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4541,13 @@
         <v>313590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -4544,13 +4556,13 @@
         <v>219105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>490</v>
@@ -4559,13 +4571,13 @@
         <v>532696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A997676-2D54-4990-8C64-86C119D2D089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D6DABF-0658-47B5-BE78-D4118554B45B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4657,7 +4669,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4770,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4785,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4815,13 +4827,13 @@
         <v>611229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>820</v>
@@ -4830,13 +4842,13 @@
         <v>922573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>1448</v>
@@ -4845,13 +4857,13 @@
         <v>1533802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,10 +4878,10 @@
         <v>69462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>202</v>
@@ -4953,7 +4965,7 @@
         <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4980,13 @@
         <v>33878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4983,13 +4995,13 @@
         <v>22437</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -5001,10 +5013,10 @@
         <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5093,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5108,7 +5120,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5135,13 @@
         <v>1151188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>1270</v>
@@ -5138,13 +5150,13 @@
         <v>1335525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -5153,13 +5165,13 @@
         <v>2486713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5186,13 @@
         <v>511060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H12" s="7">
         <v>362</v>
@@ -5189,13 +5201,13 @@
         <v>372016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>844</v>
@@ -5204,13 +5216,13 @@
         <v>883077</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5237,13 @@
         <v>208172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -5240,13 +5252,13 @@
         <v>139056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>325</v>
@@ -5255,13 +5267,13 @@
         <v>347228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5288,13 @@
         <v>205965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5291,13 +5303,13 @@
         <v>141703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5306,13 +5318,13 @@
         <v>347668</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5416,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5443,13 @@
         <v>196278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5446,13 +5458,13 @@
         <v>240687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -5461,13 +5473,13 @@
         <v>436965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5494,13 @@
         <v>197928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>161</v>
@@ -5497,13 +5509,13 @@
         <v>164495</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>343</v>
@@ -5512,13 +5524,13 @@
         <v>362423</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5545,13 @@
         <v>72741</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
@@ -5548,13 +5560,13 @@
         <v>69540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -5563,13 +5575,13 @@
         <v>142281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5596,13 @@
         <v>79939</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -5599,13 +5611,13 @@
         <v>74418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -5614,13 +5626,13 @@
         <v>154356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5751,13 @@
         <v>1958694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>2317</v>
@@ -5754,13 +5766,13 @@
         <v>2498785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>4212</v>
@@ -5769,13 +5781,13 @@
         <v>4457480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5802,13 @@
         <v>778451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>556</v>
@@ -5805,13 +5817,13 @@
         <v>569606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>1284</v>
@@ -5820,13 +5832,13 @@
         <v>1348056</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5853,13 @@
         <v>320691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -5856,13 +5868,13 @@
         <v>225151</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>511</v>
@@ -5871,13 +5883,13 @@
         <v>545842</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5904,13 @@
         <v>319782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -5907,13 +5919,13 @@
         <v>238558</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>534</v>
@@ -5922,13 +5934,13 @@
         <v>558340</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB282A4-DF35-4DBF-AC9D-018C31F26A95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC839D-8C9A-48E8-B4D2-4D3629788EEA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6020,7 +6032,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6127,13 +6139,13 @@
         <v>424226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>1098</v>
@@ -6142,13 +6154,13 @@
         <v>636302</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>1643</v>
@@ -6157,13 +6169,13 @@
         <v>1060528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6190,13 @@
         <v>84020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>296</v>
@@ -6193,13 +6205,13 @@
         <v>179340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>409</v>
@@ -6208,13 +6220,13 @@
         <v>263360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6241,13 @@
         <v>10338</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6244,13 +6256,13 @@
         <v>11469</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -6259,13 +6271,13 @@
         <v>21807</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6292,13 @@
         <v>10288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6295,13 +6307,13 @@
         <v>2420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -6310,13 +6322,13 @@
         <v>12708</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6343,13 @@
         <v>12762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6346,13 +6358,13 @@
         <v>6422</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -6361,13 +6373,13 @@
         <v>19183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,28 +6447,28 @@
         <v>1599660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>2160</v>
       </c>
       <c r="I10" s="7">
-        <v>1686142</v>
+        <v>1686141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>3683</v>
@@ -6465,13 +6477,13 @@
         <v>3285803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6498,13 @@
         <v>232725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
@@ -6501,13 +6513,13 @@
         <v>314714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>658</v>
@@ -6516,13 +6528,13 @@
         <v>547439</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6549,13 @@
         <v>113811</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>150</v>
@@ -6552,13 +6564,13 @@
         <v>119446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -6567,13 +6579,13 @@
         <v>233257</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6600,13 @@
         <v>80766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -6603,13 +6615,13 @@
         <v>65222</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -6618,13 +6630,13 @@
         <v>145988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6651,13 @@
         <v>135060</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>412</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -6654,13 +6666,13 @@
         <v>63997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -6669,13 +6681,13 @@
         <v>199057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,7 +6714,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6743,13 +6755,13 @@
         <v>485324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>772</v>
@@ -6758,13 +6770,13 @@
         <v>535754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>1275</v>
@@ -6773,13 +6785,13 @@
         <v>1021079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6794,13 +6806,13 @@
         <v>55296</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -6809,13 +6821,13 @@
         <v>64790</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -6824,13 +6836,13 @@
         <v>120086</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6857,13 @@
         <v>53147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
@@ -6860,13 +6872,13 @@
         <v>43898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
@@ -6875,13 +6887,13 @@
         <v>97044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>187</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6908,13 @@
         <v>32946</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -6911,13 +6923,13 @@
         <v>22890</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -6926,13 +6938,13 @@
         <v>55837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6959,13 @@
         <v>46327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -6962,13 +6974,13 @@
         <v>46554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>453</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -6977,13 +6989,13 @@
         <v>92880</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>449</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7063,13 @@
         <v>2509210</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>4030</v>
@@ -7066,28 +7078,28 @@
         <v>2858199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>6601</v>
       </c>
       <c r="N22" s="7">
-        <v>5367408</v>
+        <v>5367409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7114,13 @@
         <v>372041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H23" s="7">
         <v>816</v>
@@ -7117,13 +7129,13 @@
         <v>558844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>1216</v>
@@ -7132,13 +7144,13 @@
         <v>930885</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>297</v>
+        <v>472</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,13 +7165,13 @@
         <v>177295</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -7168,13 +7180,13 @@
         <v>174813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="M24" s="7">
         <v>381</v>
@@ -7183,13 +7195,13 @@
         <v>352108</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>207</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7216,13 @@
         <v>124000</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -7219,13 +7231,13 @@
         <v>90533</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -7237,10 +7249,10 @@
         <v>67</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7267,13 @@
         <v>194148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -7270,13 +7282,13 @@
         <v>116972</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>484</v>
+        <v>214</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>485</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
@@ -7285,13 +7297,13 @@
         <v>311121</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,7 +7315,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7333,7 +7345,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8D9BEC-45E5-4EA8-8B8B-38EC70ECAB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F979DE-3B6D-4F67-8F36-624F50FB9EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D672A07-FCE3-4450-8154-BE1E09B47286}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EBFBA12-74AC-4DF7-9258-A34A08D31FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="500">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>No recogida oleada</t>
+    <t>No recogida en oleada</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,7 +89,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>No Procede</t>
+    <t>No procede</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,13 +107,13 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>ROJO</t>
-  </si>
-  <si>
-    <t>AMARILLO</t>
-  </si>
-  <si>
-    <t>VERDE</t>
+    <t>Exposición psicosocial más desfavorable para la salud</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial intermedia</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial más favorable para la salud</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -1043,67 +1043,67 @@
     <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>1,37%</t>
@@ -1112,409 +1112,433 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>14,2%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3547C9-E4CC-412D-B974-F984B9440D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7C9185-C9E2-4DDE-8C83-F2679FD3C94D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2128,7 +2152,7 @@
         <v>2329</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -2332,7 +2356,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2406,7 +2430,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2610,7 +2634,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3022,7 +3046,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -3037,7 +3061,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
@@ -3052,7 +3076,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -3226,7 +3250,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -3241,7 +3265,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -3256,7 +3280,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -3289,7 +3313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AAC8FD-286D-40D5-8444-3EF1D8060C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B912B3E6-E7B0-424A-888F-BE49C7C93A81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3476,7 +3500,7 @@
         <v>1121</v>
       </c>
       <c r="I5" s="7">
-        <v>1201993</v>
+        <v>1201994</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>46</v>
@@ -3680,7 +3704,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4158,7 +4182,7 @@
         <v>306</v>
       </c>
       <c r="N18" s="7">
-        <v>339065</v>
+        <v>339066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>134</v>
@@ -4311,7 +4335,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4652,7 +4676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D6DABF-0658-47B5-BE78-D4118554B45B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0217D747-EBA6-4563-B62F-D2E23B0BE9A3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5470,7 +5494,7 @@
         <v>407</v>
       </c>
       <c r="N17" s="7">
-        <v>436965</v>
+        <v>436966</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>270</v>
@@ -5521,7 +5545,7 @@
         <v>343</v>
       </c>
       <c r="N18" s="7">
-        <v>362423</v>
+        <v>362424</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>279</v>
@@ -5623,7 +5647,7 @@
         <v>145</v>
       </c>
       <c r="N20" s="7">
-        <v>154356</v>
+        <v>154357</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>297</v>
@@ -5674,7 +5698,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6015,7 +6039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC839D-8C9A-48E8-B4D2-4D3629788EEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8961EB55-FDE3-4E1D-8D8C-D603D737EBA2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6136,7 +6160,7 @@
         <v>545</v>
       </c>
       <c r="D4" s="7">
-        <v>424226</v>
+        <v>403696</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>334</v>
@@ -6151,7 +6175,7 @@
         <v>1098</v>
       </c>
       <c r="I4" s="7">
-        <v>636302</v>
+        <v>576982</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>337</v>
@@ -6166,7 +6190,7 @@
         <v>1643</v>
       </c>
       <c r="N4" s="7">
-        <v>1060528</v>
+        <v>980678</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>340</v>
@@ -6187,7 +6211,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>84020</v>
+        <v>78299</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>343</v>
@@ -6202,7 +6226,7 @@
         <v>296</v>
       </c>
       <c r="I5" s="7">
-        <v>179340</v>
+        <v>160323</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>346</v>
@@ -6217,7 +6241,7 @@
         <v>409</v>
       </c>
       <c r="N5" s="7">
-        <v>263360</v>
+        <v>238622</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>349</v>
@@ -6238,7 +6262,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>10338</v>
+        <v>9410</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>352</v>
@@ -6253,7 +6277,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>11469</v>
+        <v>10315</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>355</v>
@@ -6268,7 +6292,7 @@
         <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>21807</v>
+        <v>19725</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>358</v>
@@ -6277,7 +6301,7 @@
         <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,46 +6313,46 @@
         <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>10288</v>
+        <v>11056</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2420</v>
+        <v>2194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>12708</v>
+        <v>13250</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,46 +6364,46 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>12762</v>
+        <v>12476</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>6422</v>
+        <v>5694</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
       </c>
       <c r="N8" s="7">
-        <v>19183</v>
+        <v>18170</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,7 +6415,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6406,7 +6430,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6421,7 +6445,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6444,46 +6468,46 @@
         <v>1523</v>
       </c>
       <c r="D10" s="7">
-        <v>1599660</v>
+        <v>1551916</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>2160</v>
       </c>
       <c r="I10" s="7">
-        <v>1686141</v>
+        <v>1725061</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>3683</v>
       </c>
       <c r="N10" s="7">
-        <v>3285803</v>
+        <v>3276977</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,46 +6519,46 @@
         <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>232725</v>
+        <v>227904</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>433</v>
       </c>
       <c r="I11" s="7">
-        <v>314714</v>
+        <v>285927</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>658</v>
       </c>
       <c r="N11" s="7">
-        <v>547439</v>
+        <v>513832</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,46 +6570,46 @@
         <v>101</v>
       </c>
       <c r="D12" s="7">
-        <v>113811</v>
+        <v>107001</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>397</v>
+        <v>175</v>
       </c>
       <c r="H12" s="7">
         <v>150</v>
       </c>
       <c r="I12" s="7">
-        <v>119446</v>
+        <v>108752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
       </c>
       <c r="N12" s="7">
-        <v>233257</v>
+        <v>215753</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,46 +6621,46 @@
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>80766</v>
+        <v>78351</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>401</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
       </c>
       <c r="I13" s="7">
-        <v>65222</v>
+        <v>59991</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
       </c>
       <c r="N13" s="7">
-        <v>145988</v>
+        <v>138342</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,46 +6672,46 @@
         <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>135060</v>
+        <v>325155</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
       </c>
       <c r="I14" s="7">
-        <v>63997</v>
+        <v>58091</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
       </c>
       <c r="N14" s="7">
-        <v>199057</v>
+        <v>383247</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,7 +6723,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6714,7 +6738,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6729,7 +6753,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6752,46 +6776,46 @@
         <v>503</v>
       </c>
       <c r="D16" s="7">
-        <v>485324</v>
+        <v>470243</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H16" s="7">
         <v>772</v>
       </c>
       <c r="I16" s="7">
-        <v>535754</v>
+        <v>497005</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>1275</v>
       </c>
       <c r="N16" s="7">
-        <v>1021079</v>
+        <v>967248</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,46 +6827,46 @@
         <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>55296</v>
+        <v>51165</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
       </c>
       <c r="I17" s="7">
-        <v>64790</v>
+        <v>58610</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
       </c>
       <c r="N17" s="7">
-        <v>120086</v>
+        <v>109775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,46 +6878,46 @@
         <v>43</v>
       </c>
       <c r="D18" s="7">
-        <v>53147</v>
+        <v>49620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>433</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H18" s="7">
         <v>58</v>
       </c>
       <c r="I18" s="7">
-        <v>43898</v>
+        <v>40597</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>101</v>
       </c>
       <c r="N18" s="7">
-        <v>97044</v>
+        <v>90217</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,40 +6929,40 @@
         <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>32946</v>
+        <v>31710</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>22890</v>
+        <v>21544</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>55837</v>
+        <v>53253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>448</v>
@@ -6956,46 +6980,46 @@
         <v>41</v>
       </c>
       <c r="D20" s="7">
-        <v>46327</v>
+        <v>43885</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
       </c>
       <c r="I20" s="7">
-        <v>46554</v>
+        <v>42708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
       </c>
       <c r="N20" s="7">
-        <v>92880</v>
+        <v>86593</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,7 +7031,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -7022,7 +7046,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -7037,7 +7061,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -7060,46 +7084,46 @@
         <v>2571</v>
       </c>
       <c r="D22" s="7">
-        <v>2509210</v>
+        <v>2425856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H22" s="7">
         <v>4030</v>
       </c>
       <c r="I22" s="7">
-        <v>2858199</v>
+        <v>2799048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M22" s="7">
         <v>6601</v>
       </c>
       <c r="N22" s="7">
-        <v>5367409</v>
+        <v>5224904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,46 +7135,46 @@
         <v>400</v>
       </c>
       <c r="D23" s="7">
-        <v>372041</v>
+        <v>357369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H23" s="7">
         <v>816</v>
       </c>
       <c r="I23" s="7">
-        <v>558844</v>
+        <v>504860</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M23" s="7">
         <v>1216</v>
       </c>
       <c r="N23" s="7">
-        <v>930885</v>
+        <v>862229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,46 +7186,46 @@
         <v>154</v>
       </c>
       <c r="D24" s="7">
-        <v>177295</v>
+        <v>166031</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
       </c>
       <c r="I24" s="7">
-        <v>174813</v>
+        <v>159664</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="M24" s="7">
         <v>381</v>
       </c>
       <c r="N24" s="7">
-        <v>352108</v>
+        <v>325695</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,46 +7237,46 @@
         <v>111</v>
       </c>
       <c r="D25" s="7">
-        <v>124000</v>
+        <v>121117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>205</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
       </c>
       <c r="I25" s="7">
-        <v>90533</v>
+        <v>83729</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
       </c>
       <c r="N25" s="7">
-        <v>214532</v>
+        <v>204845</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>67</v>
+        <v>489</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,46 +7288,46 @@
         <v>128</v>
       </c>
       <c r="D26" s="7">
-        <v>194148</v>
+        <v>381516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
       </c>
       <c r="I26" s="7">
-        <v>116972</v>
+        <v>106494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>214</v>
+        <v>496</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>278</v>
       </c>
       <c r="N26" s="7">
-        <v>311121</v>
+        <v>488010</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,7 +7339,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7330,7 +7354,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7345,7 +7369,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
